--- a/data/test/GeneratedInvoices.xlsx
+++ b/data/test/GeneratedInvoices.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -200,11 +200,6 @@
   </si>
   <si>
     <t>5000</t>
-  </si>
-  <si>
-    <t>TRẠM ĐIỆN XÓM HOÀI NHƠN
-GIẤY BÁO ĐIỆN
-Liên: 1</t>
   </si>
   <si>
     <t xml:space="preserve">  Người nộp tiền
@@ -771,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0112C-AEDF-4C1B-BFFD-89D3F41B2B89}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -1292,17 +1287,6 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>1</v>
@@ -1462,17 +1446,187 @@
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29"/>
     <row r="30"/>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f>B2</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <f>B3</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <f>B4</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <f>B5+0</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4">
+        <f>B6+0</f>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B6-B5</f>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <f>E6-E5</f>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4">
+        <f>B8+0</f>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4">
+        <f>B9</f>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6">
+        <f>B7*B8+B9</f>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6">
+        <f>B10+0</f>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="16">
+        <f>A12</f>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44"/>
+    <row r="45"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A13:B13"/>

--- a/data/test/GeneratedInvoices.xlsx
+++ b/data/test/GeneratedInvoices.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -187,19 +187,9 @@
     <t>{{index}}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>5000</t>
+    <t>TRẠM ĐIỆN XÓM HOÀI NHƠN
+GIẤY BÁO ĐIỆN
+Liên: 1</t>
   </si>
   <si>
     <t xml:space="preserve">  Người nộp tiền
@@ -208,6 +198,42 @@
   <si>
     <t xml:space="preserve">            Người lập thông báo
             (Ký, ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Loc</t>
   </si>
 </sst>
 </file>
@@ -766,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0112C-AEDF-4C1B-BFFD-89D3F41B2B89}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -1128,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1144,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
@@ -1160,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
@@ -1176,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
@@ -1209,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
@@ -1287,6 +1313,17 @@
       </c>
       <c r="E13" s="11"/>
     </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>1</v>
@@ -1307,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1322,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
@@ -1337,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
@@ -1352,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
@@ -1382,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
@@ -1446,17 +1483,28 @@
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29"/>
     <row r="30"/>
+    <row r="31">
+      <c r="A31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
     <row r="32">
       <c r="A32" s="1" t="s">
         <v>1</v>
@@ -1477,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -1492,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5" t="s">
@@ -1507,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
@@ -1522,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
@@ -1552,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
@@ -1616,17 +1664,198 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
       <c r="D43" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44"/>
     <row r="45"/>
+    <row r="46">
+      <c r="A46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <f>B2</f>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <f>B3</f>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <f>B4</f>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
+        <f>B5+0</f>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4">
+        <f>B6+0</f>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B6-B5</f>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
+        <f>E6-E5</f>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <f>B8+0</f>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4">
+        <f>B9</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="6">
+        <f>B7*B8+B9</f>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6">
+        <f>B10+0</f>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="16">
+        <f>A12</f>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59"/>
+    <row r="60"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A13:B13"/>
